--- a/biology/Botanique/Socratea/Socratea.xlsx
+++ b/biology/Botanique/Socratea/Socratea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Socratea est un genre de plantes de la famille des Arecaceae (les palmiers) que l'on trouve dans les régions tropicales d'Amérique centrale et Amérique du sud .
 </t>
@@ -511,12 +523,14 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Famille des Arecaceae
 Sous-famille des Arecoideae
 Tribu des Iriarteeae
-Ce genre partage sa tribu avec 4 autres genres :   Iriartella,  Dictyocaryum,  Iriartea ,  Wettinia [1].
+Ce genre partage sa tribu avec 4 autres genres :   Iriartella,  Dictyocaryum,  Iriartea ,  Wettinia .
 </t>
         </is>
       </c>
@@ -545,15 +559,17 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (5 avr. 2011)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (5 avr. 2011) :
 Socratea exorrhiza (Mart.) H.Wendl. (1860) - Palmier à échasses ou Palmier marcheur
 Socratea hecatonandra (Dugand) R.Bernal (1986)
 Socratea montana R.Bernal &amp; A.J.Hend. (1986)
 Socratea rostrata Burret (1940)
 Socratea salazarii H.E.Moore (1963)
-Selon NCBI  (5 avr. 2011)[3] :
+Selon NCBI  (5 avr. 2011) :
 Socratea exorrhiza
 </t>
         </is>
